--- a/data/trans_camb/P23_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,07</t>
+          <t>-2,48; 6,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,45</t>
+          <t>-2,52; 5,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,59</t>
+          <t>-3,61; 4,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 8,4</t>
+          <t>1,27; 9,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,6</t>
+          <t>-1,87; 6,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 6,52</t>
+          <t>1,09; 8,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,43</t>
+          <t>1,36; 8,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,26</t>
+          <t>-2,39; 5,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 5,68</t>
+          <t>-3,42; 4,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 2,24</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 5,88</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 5,92</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 3,82</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 5,99</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 3,06</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>43,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,17%</t>
+          <t>4,68%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-8,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>22,89%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 48,97</t>
+          <t>-18,45; 66,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 53,15</t>
+          <t>-17,63; 53,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 74,94</t>
+          <t>-25,27; 48,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 79,35</t>
+          <t>8,81; 92,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 79,65</t>
+          <t>-11,21; 46,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 60,33</t>
+          <t>7,82; 79,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 49,85</t>
+          <t>9,84; 84,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 57,41</t>
+          <t>-17,76; 50,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 53,3</t>
+          <t>-22,27; 44,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,36; 16,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 53,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 54,94</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-15,09; 34,86</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 52,78</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-12,25; 21,74</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 5,4</t>
+          <t>-4,95; 5,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,44</t>
+          <t>-5,48; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 5,27</t>
+          <t>-7,51; 2,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,52</t>
+          <t>0,26; 12,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,78</t>
+          <t>-3,51; 9,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 11,36</t>
+          <t>-1,31; 7,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,24</t>
+          <t>-3,12; 6,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,43</t>
+          <t>-4,8; 4,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,16</t>
+          <t>-3,14; 10,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; 7,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 5,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 4,08</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 2,65</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 8,97</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 6,85</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>-13,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-5,17%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>34,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,68; 45,39</t>
+          <t>-31,69; 53,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 29,38</t>
+          <t>-33,41; 45,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 44,51</t>
+          <t>-45,3; 27,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 74,53</t>
+          <t>0,23; 123,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 55,86</t>
+          <t>-19,64; 86,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 100,41</t>
+          <t>-9,73; 65,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 45,46</t>
+          <t>-20,16; 56,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 29,49</t>
+          <t>-30,14; 45,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 51,32</t>
+          <t>-21,23; 83,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-40,94; 59,63</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 47,13</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,76; 35,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 21,99</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 81,97</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-18,71; 55,36</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>6,57</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,85</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,27</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 17,94</t>
+          <t>-2,56; 17,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 21,78</t>
+          <t>-0,14; 22,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-2,88; 16,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; 10,22</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-4,89; 10,58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 7,13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; 0,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 10,31</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 11,11</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 10,86</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 12,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 5,93</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>55,66%</t>
+          <t>64,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>100,76%</t>
+          <t>100,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>74,07%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>23,99%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-55,47%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>37,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>45,55%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40,3%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>41,88%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,21%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,13; 311,11</t>
+          <t>-28,52; 314,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 479,58</t>
+          <t>-13,24; 407,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-24,4; 301,12</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-33,44; 137,1</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 86,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-31,59; 129,26</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-49,47; 102,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-83,02; 13,74</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-18,12; 129,55</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; 142,41</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-17,23; 137,78</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-14,71; 143,94</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-46,71; 75,09</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 4,05</t>
+          <t>-1,63; 4,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,44</t>
+          <t>-1,48; 4,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 5,53</t>
+          <t>-3,0; 3,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,49</t>
+          <t>2,21; 8,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 5,58</t>
+          <t>-1,02; 5,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,47</t>
+          <t>0,89; 6,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,41</t>
+          <t>0,8; 5,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,31</t>
+          <t>-3,03; 2,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,06</t>
+          <t>-0,93; 5,31</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 2,2</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 4,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,51</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 2,18</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 5,84</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 3,18</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>42,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>16,14%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-7,13%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>29,43%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 35,66</t>
+          <t>-12,04; 45,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 38,28</t>
+          <t>-11,24; 43,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 49,94</t>
+          <t>-22,48; 30,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,72; 57,92</t>
+          <t>15,82; 81,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 48,49</t>
+          <t>-5,96; 42,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 57,83</t>
+          <t>6,2; 54,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 38,41</t>
+          <t>5,73; 50,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,77; 37,88</t>
+          <t>-21,72; 22,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 44,36</t>
+          <t>-6,66; 48,14</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-24,03; 16,42</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 40,77</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 39,01</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 19,1</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 50,12</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-9,43; 22,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
